--- a/VotingSystem/occur_error_data/Vote 42-QLA-17-Tue Sep 19 2017 11_32_37 GMT+0900 (JST).xlsx
+++ b/VotingSystem/occur_error_data/Vote 42-QLA-17-Tue Sep 19 2017 11_32_37 GMT+0900 (JST).xlsx
@@ -1,12 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\learning_lab\Inclass_activity\LearningLab\VotingSystem\occur_error_data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8988" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -220,62 +228,372 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
-    <font/>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="14" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="F62" sqref="F62"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -295,41 +613,41 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>42997.48099467593</v>
+        <v>42997.480994675927</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="3">
-        <v>2.016311359E9</v>
+        <v>2016311359</v>
       </c>
       <c r="D2" s="3">
-        <v>42.0</v>
+        <v>42</v>
       </c>
       <c r="E2" s="3">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>42997.48105202546</v>
+        <v>42997.481052025461</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="3">
-        <v>2.016310798E9</v>
+        <v>2016310798</v>
       </c>
       <c r="D3" s="3">
-        <v>42.0</v>
+        <v>42</v>
       </c>
       <c r="E3" s="3">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>42997.481129224536</v>
       </c>
@@ -337,84 +655,84 @@
         <v>8</v>
       </c>
       <c r="C4" s="3">
-        <v>2.01631055E9</v>
+        <v>2016310550</v>
       </c>
       <c r="D4" s="3">
-        <v>42.0</v>
+        <v>42</v>
       </c>
       <c r="E4" s="3">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>42997.48120980324</v>
+        <v>42997.481209803242</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="3">
-        <v>2.016314632E9</v>
+        <v>2016314632</v>
       </c>
       <c r="D5" s="3">
-        <v>42.0</v>
+        <v>42</v>
       </c>
       <c r="E5" s="3">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>42997.48126945602</v>
+        <v>42997.481269456017</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="3">
-        <v>2.016311819E9</v>
+        <v>2016311819</v>
       </c>
       <c r="D6" s="3">
-        <v>42.0</v>
+        <v>42</v>
       </c>
       <c r="E6" s="3">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>42997.4812991088</v>
+        <v>42997.481299108797</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="3">
-        <v>2.013310777E9</v>
+        <v>2013310777</v>
       </c>
       <c r="D7" s="3">
-        <v>42.0</v>
+        <v>42</v>
       </c>
       <c r="E7" s="3">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>42997.48140870371</v>
+        <v>42997.481408703708</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="3">
-        <v>2.015311986E9</v>
+        <v>2015311986</v>
       </c>
       <c r="D8" s="3">
-        <v>42.0</v>
+        <v>42</v>
       </c>
       <c r="E8" s="3">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>42997.481425590275</v>
       </c>
@@ -422,33 +740,33 @@
         <v>13</v>
       </c>
       <c r="C9" s="3">
-        <v>2.014313933E9</v>
+        <v>2014313933</v>
       </c>
       <c r="D9" s="3">
-        <v>42.0</v>
+        <v>42</v>
       </c>
       <c r="E9" s="3">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>42997.48143510417</v>
+        <v>42997.481435104171</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="3">
-        <v>2.01631048E9</v>
+        <v>2016310480</v>
       </c>
       <c r="D10" s="3">
-        <v>42.0</v>
+        <v>42</v>
       </c>
       <c r="E10" s="3">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>42997.481454479166</v>
       </c>
@@ -456,16 +774,16 @@
         <v>15</v>
       </c>
       <c r="C11" s="3">
-        <v>2.017313029E9</v>
+        <v>2017313029</v>
       </c>
       <c r="D11" s="3">
-        <v>42.0</v>
+        <v>42</v>
       </c>
       <c r="E11" s="3">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>42997.481474479166</v>
       </c>
@@ -473,84 +791,84 @@
         <v>16</v>
       </c>
       <c r="C12" s="3">
-        <v>2.016310561E9</v>
+        <v>2016310561</v>
       </c>
       <c r="D12" s="3">
-        <v>42.0</v>
+        <v>42</v>
       </c>
       <c r="E12" s="3">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>42997.48147565972</v>
+        <v>42997.481475659719</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C13" s="3">
-        <v>2.016313764E9</v>
+        <v>2016313764</v>
       </c>
       <c r="D13" s="3">
-        <v>42.0</v>
+        <v>42</v>
       </c>
       <c r="E13" s="3">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>42997.48157697917</v>
+        <v>42997.481576979168</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C14" s="3">
-        <v>2.016311922E9</v>
+        <v>2016311922</v>
       </c>
       <c r="D14" s="3">
-        <v>42.0</v>
+        <v>42</v>
       </c>
       <c r="E14" s="3">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>42997.48159377315</v>
+        <v>42997.481593773147</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C15" s="3">
-        <v>2.014313578E9</v>
+        <v>2014313578</v>
       </c>
       <c r="D15" s="3">
-        <v>42.0</v>
+        <v>42</v>
       </c>
       <c r="E15" s="3">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>42997.48161971065</v>
+        <v>42997.481619710648</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C16" s="3">
-        <v>2.0143147E9</v>
+        <v>2014314700</v>
       </c>
       <c r="D16" s="3">
-        <v>42.0</v>
+        <v>42</v>
       </c>
       <c r="E16" s="3">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>42997.481626134264</v>
       </c>
@@ -558,16 +876,16 @@
         <v>21</v>
       </c>
       <c r="C17" s="3">
-        <v>2.013312103E9</v>
+        <v>2013312103</v>
       </c>
       <c r="D17" s="3">
-        <v>42.0</v>
+        <v>42</v>
       </c>
       <c r="E17" s="3">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>42997.481693090274</v>
       </c>
@@ -575,16 +893,16 @@
         <v>22</v>
       </c>
       <c r="C18" s="3">
-        <v>2.016312138E9</v>
+        <v>2016312138</v>
       </c>
       <c r="D18" s="3">
-        <v>42.0</v>
+        <v>42</v>
       </c>
       <c r="E18" s="3">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>42997.481713217596</v>
       </c>
@@ -592,33 +910,33 @@
         <v>23</v>
       </c>
       <c r="C19" s="3">
-        <v>2.013311952E9</v>
+        <v>2013311952</v>
       </c>
       <c r="D19" s="3">
-        <v>42.0</v>
+        <v>42</v>
       </c>
       <c r="E19" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>42997.48172092593</v>
+        <v>42997.481720925927</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C20" s="3">
-        <v>2.016310456E9</v>
+        <v>2016310456</v>
       </c>
       <c r="D20" s="3">
-        <v>42.0</v>
+        <v>42</v>
       </c>
       <c r="E20" s="3">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>42997.4817802662</v>
       </c>
@@ -626,67 +944,67 @@
         <v>25</v>
       </c>
       <c r="C21" s="3">
-        <v>2.016311114E9</v>
+        <v>2016311114</v>
       </c>
       <c r="D21" s="3">
-        <v>42.0</v>
+        <v>42</v>
       </c>
       <c r="E21" s="3">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>42997.48179248843</v>
+        <v>42997.481792488426</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C22" s="3">
-        <v>2.01431129E9</v>
+        <v>2014311290</v>
       </c>
       <c r="D22" s="3">
-        <v>42.0</v>
+        <v>42</v>
       </c>
       <c r="E22" s="3">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>42997.48180605324</v>
+        <v>42997.481806053242</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C23" s="3">
-        <v>2.016310336E9</v>
+        <v>2016310336</v>
       </c>
       <c r="D23" s="3">
-        <v>42.0</v>
+        <v>42</v>
       </c>
       <c r="E23" s="3">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <v>42997.48183797454</v>
+        <v>42997.481837974541</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C24" s="3">
-        <v>2.013310345E9</v>
+        <v>2013310345</v>
       </c>
       <c r="D24" s="3">
-        <v>42.0</v>
+        <v>42</v>
       </c>
       <c r="E24" s="3">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>42997.481846423616</v>
       </c>
@@ -694,33 +1012,33 @@
         <v>29</v>
       </c>
       <c r="C25" s="3">
-        <v>2.016311812E9</v>
+        <v>2016311812</v>
       </c>
       <c r="D25" s="3">
-        <v>42.0</v>
+        <v>42</v>
       </c>
       <c r="E25" s="3">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <v>42997.48197013889</v>
+        <v>42997.481970138891</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C26" s="3">
-        <v>2.016310516E9</v>
+        <v>2016310516</v>
       </c>
       <c r="D26" s="3">
-        <v>42.0</v>
+        <v>42</v>
       </c>
       <c r="E26" s="3">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>42997.481989884254</v>
       </c>
@@ -728,16 +1046,16 @@
         <v>31</v>
       </c>
       <c r="C27" s="3">
-        <v>2.016311303E9</v>
+        <v>2016311303</v>
       </c>
       <c r="D27" s="3">
-        <v>42.0</v>
+        <v>42</v>
       </c>
       <c r="E27" s="3">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>42997.482014548616</v>
       </c>
@@ -745,135 +1063,135 @@
         <v>32</v>
       </c>
       <c r="C28" s="3">
-        <v>2.011311176E9</v>
+        <v>2011311176</v>
       </c>
       <c r="D28" s="3">
-        <v>42.0</v>
+        <v>42</v>
       </c>
       <c r="E28" s="3">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <v>42997.48201864584</v>
+        <v>42997.482018645838</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C29" s="3">
-        <v>2.014311308E9</v>
+        <v>2014311308</v>
       </c>
       <c r="D29" s="3">
-        <v>42.0</v>
+        <v>42</v>
       </c>
       <c r="E29" s="3">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <v>42997.48201894676</v>
+        <v>42997.482018946757</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C30" s="3">
-        <v>2.016310656E9</v>
+        <v>2016310656</v>
       </c>
       <c r="D30" s="3">
-        <v>42.0</v>
+        <v>42</v>
       </c>
       <c r="E30" s="3">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <v>42997.48202122685</v>
+        <v>42997.482021226853</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C31" s="3">
-        <v>2.016310545E9</v>
+        <v>2016310545</v>
       </c>
       <c r="D31" s="3">
-        <v>42.0</v>
+        <v>42</v>
       </c>
       <c r="E31" s="3">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
-        <v>42997.48205153935</v>
+        <v>42997.482051539351</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C32" s="3">
-        <v>2.016313601E9</v>
+        <v>2016313601</v>
       </c>
       <c r="D32" s="3">
-        <v>42.0</v>
+        <v>42</v>
       </c>
       <c r="E32" s="3">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
-        <v>42997.48205194445</v>
+        <v>42997.482051944447</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C33" s="3">
-        <v>2.016312617E9</v>
+        <v>2016312617</v>
       </c>
       <c r="D33" s="3">
-        <v>42.0</v>
+        <v>42</v>
       </c>
       <c r="E33" s="3">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
-        <v>42997.48207949074</v>
+        <v>42997.482079490743</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C34" s="3">
-        <v>2.014311587E9</v>
+        <v>2014311587</v>
       </c>
       <c r="D34" s="3">
-        <v>42.0</v>
+        <v>42</v>
       </c>
       <c r="E34" s="3">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
-        <v>42997.48210678241</v>
+        <v>42997.482106782409</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>39</v>
       </c>
       <c r="C35" s="3">
-        <v>2.013310744E9</v>
+        <v>2013310744</v>
       </c>
       <c r="D35" s="3">
-        <v>42.0</v>
+        <v>42</v>
       </c>
       <c r="E35" s="3">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>42997.48212310185</v>
       </c>
@@ -881,50 +1199,50 @@
         <v>40</v>
       </c>
       <c r="C36" s="3">
-        <v>2.016314691E9</v>
+        <v>2016314691</v>
       </c>
       <c r="D36" s="3">
-        <v>42.0</v>
+        <v>42</v>
       </c>
       <c r="E36" s="3">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
-        <v>42997.48213184028</v>
+        <v>42997.482131840283</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C37" s="3">
-        <v>2.014311775E9</v>
+        <v>2014311775</v>
       </c>
       <c r="D37" s="3">
-        <v>42.0</v>
+        <v>42</v>
       </c>
       <c r="E37" s="3">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
-        <v>42997.48213945601</v>
+        <v>42997.482139456013</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>42</v>
       </c>
       <c r="C38" s="3">
-        <v>2.014310503E9</v>
+        <v>2014310503</v>
       </c>
       <c r="D38" s="3">
-        <v>42.0</v>
+        <v>42</v>
       </c>
       <c r="E38" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>42997.482154537036</v>
       </c>
@@ -932,84 +1250,84 @@
         <v>43</v>
       </c>
       <c r="C39" s="3">
-        <v>2.016314166E9</v>
+        <v>2016314166</v>
       </c>
       <c r="D39" s="3">
-        <v>42.0</v>
+        <v>42</v>
       </c>
       <c r="E39" s="3">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
-        <v>42997.48217679399</v>
+        <v>42997.482176793987</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>44</v>
       </c>
       <c r="C40" s="3">
-        <v>2.014311303E9</v>
+        <v>2014311303</v>
       </c>
       <c r="D40" s="3">
-        <v>42.0</v>
+        <v>42</v>
       </c>
       <c r="E40" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
-        <v>42997.48221119213</v>
+        <v>42997.482211192131</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C41" s="3">
-        <v>2.016311379E9</v>
+        <v>2016311379</v>
       </c>
       <c r="D41" s="3">
-        <v>42.0</v>
+        <v>42</v>
       </c>
       <c r="E41" s="3">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
-        <v>42997.48221715278</v>
+        <v>42997.482217152778</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>46</v>
       </c>
       <c r="C42" s="3">
-        <v>2.013313823E9</v>
+        <v>2013313823</v>
       </c>
       <c r="D42" s="3">
-        <v>42.0</v>
+        <v>42</v>
       </c>
       <c r="E42" s="3">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
-        <v>42997.4822212037</v>
+        <v>42997.482221203703</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>47</v>
       </c>
       <c r="C43" s="3">
-        <v>2.014310245E9</v>
+        <v>2014310245</v>
       </c>
       <c r="D43" s="3">
-        <v>42.0</v>
+        <v>42</v>
       </c>
       <c r="E43" s="3">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="44">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>42997.482268796295</v>
       </c>
@@ -1017,16 +1335,16 @@
         <v>48</v>
       </c>
       <c r="C44" s="3">
-        <v>2.016310465E9</v>
+        <v>2016310465</v>
       </c>
       <c r="D44" s="3">
-        <v>42.0</v>
+        <v>42</v>
       </c>
       <c r="E44" s="3">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>42997.482295127316</v>
       </c>
@@ -1034,84 +1352,84 @@
         <v>49</v>
       </c>
       <c r="C45" s="3">
-        <v>2.01331125E9</v>
+        <v>2013311250</v>
       </c>
       <c r="D45" s="3">
-        <v>42.0</v>
+        <v>42</v>
       </c>
       <c r="E45" s="3">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
-        <v>42997.4823219213</v>
+        <v>42997.482321921299</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C46" s="3">
-        <v>2.016310983E9</v>
+        <v>2016310983</v>
       </c>
       <c r="D46" s="3">
-        <v>42.0</v>
+        <v>42</v>
       </c>
       <c r="E46" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
-        <v>42997.48232642361</v>
+        <v>42997.482326423611</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C47" s="3">
-        <v>2.016310461E9</v>
+        <v>2016310461</v>
       </c>
       <c r="D47" s="3">
-        <v>42.0</v>
+        <v>42</v>
       </c>
       <c r="E47" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
-        <v>42997.48236150463</v>
+        <v>42997.482361504633</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C48" s="3">
-        <v>2.012313915E9</v>
+        <v>2012313915</v>
       </c>
       <c r="D48" s="3">
-        <v>42.0</v>
+        <v>42</v>
       </c>
       <c r="E48" s="3">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="49">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
-        <v>42997.4823668287</v>
+        <v>42997.482366828699</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C49" s="3">
-        <v>2.016311186E9</v>
+        <v>2016311186</v>
       </c>
       <c r="D49" s="3">
-        <v>42.0</v>
+        <v>42</v>
       </c>
       <c r="E49" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>42997.482378263885</v>
       </c>
@@ -1119,16 +1437,16 @@
         <v>54</v>
       </c>
       <c r="C50" s="3">
-        <v>2.014311189E9</v>
+        <v>2014311189</v>
       </c>
       <c r="D50" s="3">
-        <v>42.0</v>
+        <v>42</v>
       </c>
       <c r="E50" s="3">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="51">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>42997.482427442126</v>
       </c>
@@ -1136,50 +1454,50 @@
         <v>55</v>
       </c>
       <c r="C51" s="3">
-        <v>2.016314448E9</v>
+        <v>2016314448</v>
       </c>
       <c r="D51" s="3">
-        <v>42.0</v>
+        <v>42</v>
       </c>
       <c r="E51" s="3">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="52">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
-        <v>42997.48242861111</v>
+        <v>42997.482428611111</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C52" s="3">
-        <v>2.017311693E9</v>
+        <v>2017311693</v>
       </c>
       <c r="D52" s="3">
-        <v>42.0</v>
+        <v>42</v>
       </c>
       <c r="E52" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
-        <v>42997.48243721065</v>
+        <v>42997.482437210652</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>57</v>
       </c>
       <c r="C53" s="3">
-        <v>2.016310079E9</v>
+        <v>2016310079</v>
       </c>
       <c r="D53" s="3">
-        <v>42.0</v>
+        <v>42</v>
       </c>
       <c r="E53" s="3">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>42997.482457025464</v>
       </c>
@@ -1187,16 +1505,16 @@
         <v>58</v>
       </c>
       <c r="C54" s="3">
-        <v>2.016311157E9</v>
+        <v>2016311157</v>
       </c>
       <c r="D54" s="3">
-        <v>42.0</v>
+        <v>42</v>
       </c>
       <c r="E54" s="3">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="55">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>42997.482461631946</v>
       </c>
@@ -1204,33 +1522,33 @@
         <v>59</v>
       </c>
       <c r="C55" s="3">
-        <v>2.016311315E9</v>
+        <v>2016311315</v>
       </c>
       <c r="D55" s="3">
-        <v>42.0</v>
+        <v>42</v>
       </c>
       <c r="E55" s="3">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="56">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
-        <v>42997.48246572917</v>
+        <v>42997.482465729168</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>60</v>
       </c>
       <c r="C56" s="3">
-        <v>2.01631306E9</v>
+        <v>2016313060</v>
       </c>
       <c r="D56" s="3">
-        <v>42.0</v>
+        <v>42</v>
       </c>
       <c r="E56" s="3">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>42997.48248042824</v>
       </c>
@@ -1238,50 +1556,50 @@
         <v>61</v>
       </c>
       <c r="C57" s="3">
-        <v>2.016313034E9</v>
+        <v>2016313034</v>
       </c>
       <c r="D57" s="3">
-        <v>42.0</v>
+        <v>42</v>
       </c>
       <c r="E57" s="3">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
-        <v>42997.48258861111</v>
+        <v>42997.482588611107</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C58" s="3">
-        <v>2.014312545E9</v>
+        <v>2014312545</v>
       </c>
       <c r="D58" s="3">
-        <v>42.0</v>
+        <v>42</v>
       </c>
       <c r="E58" s="3">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
-        <v>42997.48264673611</v>
+        <v>42997.482646736113</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>63</v>
       </c>
       <c r="C59" s="3">
-        <v>2.014312555E9</v>
+        <v>2014312555</v>
       </c>
       <c r="D59" s="3">
-        <v>42.0</v>
+        <v>42</v>
       </c>
       <c r="E59" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>42997.482665081014</v>
       </c>
@@ -1289,70 +1607,72 @@
         <v>64</v>
       </c>
       <c r="C60" s="3">
-        <v>2.016311E9</v>
+        <v>2016311000</v>
       </c>
       <c r="D60" s="3">
-        <v>42.0</v>
+        <v>42</v>
       </c>
       <c r="E60" s="3">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="61">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
-        <v>42997.48268087963</v>
+        <v>42997.482680879628</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>65</v>
       </c>
       <c r="C61" s="3">
-        <v>2.012312521E9</v>
+        <v>2012312521</v>
       </c>
       <c r="D61" s="3">
-        <v>42.0</v>
+        <v>42</v>
       </c>
       <c r="E61" s="3">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="62">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
-        <v>42997.4827056713</v>
+        <v>42997.482705671297</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>66</v>
       </c>
       <c r="C62" s="3">
-        <v>2.015318283E9</v>
+        <v>2015318283</v>
       </c>
       <c r="D62" s="3">
-        <v>42.0</v>
+        <v>42</v>
       </c>
       <c r="E62" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="F62" s="3">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="63">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
-        <v>42997.48288372685</v>
+        <v>42997.482883726851</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>67</v>
       </c>
       <c r="C63" s="3">
-        <v>2.016313328E9</v>
+        <v>2016313328</v>
       </c>
       <c r="D63" s="3">
-        <v>42.0</v>
+        <v>42</v>
       </c>
       <c r="E63" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>